--- a/Entregaveis/1.RepositorioSemantico/Terminologias/OBM/BaseOBM/COrrigirBaseOBM/VTM_COMPOSTOS_PREENCHER.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Terminologias/OBM/BaseOBM/COrrigirBaseOBM/VTM_COMPOSTOS_PREENCHER.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Terminologias/OBM/BaseOBM/COrrigirBaseOBM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aline\Documents\GitHub\ips-brasil-documentos\Entregaveis\1.RepositorioSemantico\Terminologias\OBM\BaseOBM\COrrigirBaseOBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17B038D2-7777-B749-8567-AAA7E42F5617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="2320" windowWidth="26840" windowHeight="15940" xr2:uid="{91133A9C-EDBB-364D-8284-86008B89A813}"/>
+    <workbookView xWindow="2304" yWindow="2316" windowWidth="26844" windowHeight="15936"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3146,7 +3145,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3559,19 +3558,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D9356C-E175-3840-90E0-89297C623F30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N504"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A505" sqref="A505"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="9" width="21.1640625" customWidth="1"/>
+    <col min="6" max="6" width="45.69921875" customWidth="1"/>
+    <col min="8" max="9" width="21.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>11253</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>11258</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>11259</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>11266</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>11268</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>11269</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>11276</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>11277</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>11278</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>11279</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11280</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>11281</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>11282</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>11286</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>11288</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>11289</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>11291</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>11294</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>11295</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>11303</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>11316</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>11318</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>11326</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>11330</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>11338</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>11339</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>11344</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>11345</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>11349</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>11359</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>11361</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>11362</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>11377</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>11393</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>11398</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>11422</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>11431</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>11440</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>11441</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>11444</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>11447</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>11454</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>11456</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>11459</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>11461</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>11466</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>11477</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>11482</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>11496</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>11510</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>11526</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>11531</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>11532</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>11533</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>11539</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>11542</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>11543</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>11547</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>11550</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>11559</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>11564</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>11573</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>11575</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <v>11594</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>11595</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
         <v>11596</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>11600</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
         <v>11606</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>11608</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
         <v>11610</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>11614</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
         <v>11620</v>
       </c>
@@ -6783,7 +6783,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>11640</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <v>11642</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>11666</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
         <v>11686</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>11691</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
         <v>11692</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>11694</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
         <v>11696</v>
       </c>
@@ -7135,7 +7135,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>11708</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
         <v>11709</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>11710</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
         <v>11711</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>11712</v>
       </c>
@@ -7355,7 +7355,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
         <v>11713</v>
       </c>
@@ -7399,7 +7399,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>11714</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
         <v>11715</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>11718</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="8">
         <v>11726</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>11732</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="8">
         <v>11737</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>11763</v>
       </c>
@@ -7707,7 +7707,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="8">
         <v>11772</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>11781</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="8">
         <v>11799</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>11813</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="8">
         <v>11820</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>11822</v>
       </c>
@@ -7971,7 +7971,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="8">
         <v>11826</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>11839</v>
       </c>
@@ -8059,7 +8059,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="8">
         <v>11840</v>
       </c>
@@ -8103,7 +8103,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>11843</v>
       </c>
@@ -8147,7 +8147,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="8">
         <v>11844</v>
       </c>
@@ -8191,7 +8191,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>11868</v>
       </c>
@@ -8235,7 +8235,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" s="8">
         <v>11884</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>11886</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="8">
         <v>11890</v>
       </c>
@@ -8367,7 +8367,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>11891</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" s="8">
         <v>11901</v>
       </c>
@@ -8455,7 +8455,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>11907</v>
       </c>
@@ -8499,7 +8499,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" s="8">
         <v>42690</v>
       </c>
@@ -8543,7 +8543,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>42692</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" s="8">
         <v>42695</v>
       </c>
@@ -8631,7 +8631,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>42699</v>
       </c>
@@ -8675,7 +8675,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" s="8">
         <v>42705</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>42721</v>
       </c>
@@ -8763,7 +8763,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" s="8">
         <v>42728</v>
       </c>
@@ -8807,7 +8807,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>42745</v>
       </c>
@@ -8851,7 +8851,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" s="8">
         <v>42749</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>42750</v>
       </c>
@@ -8939,7 +8939,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" s="8">
         <v>42754</v>
       </c>
@@ -8983,7 +8983,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>42757</v>
       </c>
@@ -9027,7 +9027,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" s="8">
         <v>42765</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>42766</v>
       </c>
@@ -9115,7 +9115,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" s="8">
         <v>42767</v>
       </c>
@@ -9159,7 +9159,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>42776</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" s="8">
         <v>42778</v>
       </c>
@@ -9247,7 +9247,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>42784</v>
       </c>
@@ -9291,7 +9291,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" s="8">
         <v>42790</v>
       </c>
@@ -9335,7 +9335,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>42793</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" s="8">
         <v>42804</v>
       </c>
@@ -9423,7 +9423,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <v>42805</v>
       </c>
@@ -9467,7 +9467,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" s="8">
         <v>42814</v>
       </c>
@@ -9511,7 +9511,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <v>42815</v>
       </c>
@@ -9555,7 +9555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" s="8">
         <v>42816</v>
       </c>
@@ -9599,7 +9599,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>42820</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" s="8">
         <v>42822</v>
       </c>
@@ -9687,7 +9687,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>42823</v>
       </c>
@@ -9731,7 +9731,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" s="8">
         <v>42826</v>
       </c>
@@ -9775,7 +9775,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>42827</v>
       </c>
@@ -9819,7 +9819,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" s="8">
         <v>42829</v>
       </c>
@@ -9863,7 +9863,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>42832</v>
       </c>
@@ -9907,7 +9907,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" s="8">
         <v>42834</v>
       </c>
@@ -9951,7 +9951,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>42840</v>
       </c>
@@ -9995,7 +9995,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" s="8">
         <v>42841</v>
       </c>
@@ -10039,7 +10039,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <v>42849</v>
       </c>
@@ -10083,7 +10083,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" s="8">
         <v>42855</v>
       </c>
@@ -10127,7 +10127,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>42856</v>
       </c>
@@ -10171,7 +10171,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" s="8">
         <v>42857</v>
       </c>
@@ -10215,7 +10215,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
         <v>42858</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" s="8">
         <v>42867</v>
       </c>
@@ -10303,7 +10303,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
         <v>42868</v>
       </c>
@@ -10347,7 +10347,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" s="8">
         <v>42873</v>
       </c>
@@ -10391,7 +10391,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
         <v>42887</v>
       </c>
@@ -10435,7 +10435,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" s="8">
         <v>42889</v>
       </c>
@@ -10479,7 +10479,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
         <v>42900</v>
       </c>
@@ -10523,7 +10523,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" s="8">
         <v>42902</v>
       </c>
@@ -10567,7 +10567,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
         <v>42905</v>
       </c>
@@ -10611,7 +10611,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" s="8">
         <v>42914</v>
       </c>
@@ -10655,7 +10655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
         <v>42915</v>
       </c>
@@ -10699,7 +10699,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163" s="8">
         <v>42932</v>
       </c>
@@ -10743,7 +10743,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
         <v>42946</v>
       </c>
@@ -10787,7 +10787,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165" s="8">
         <v>42952</v>
       </c>
@@ -10831,7 +10831,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
         <v>42959</v>
       </c>
@@ -10875,7 +10875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167" s="8">
         <v>42971</v>
       </c>
@@ -10919,7 +10919,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
         <v>42981</v>
       </c>
@@ -10963,7 +10963,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169" s="8">
         <v>42990</v>
       </c>
@@ -11007,7 +11007,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
         <v>42991</v>
       </c>
@@ -11051,7 +11051,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171" s="8">
         <v>42995</v>
       </c>
@@ -11095,7 +11095,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
         <v>42997</v>
       </c>
@@ -11139,7 +11139,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173" s="8">
         <v>42998</v>
       </c>
@@ -11183,7 +11183,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
         <v>43008</v>
       </c>
@@ -11227,7 +11227,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175" s="8">
         <v>43016</v>
       </c>
@@ -11271,7 +11271,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
         <v>43023</v>
       </c>
@@ -11315,7 +11315,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177" s="8">
         <v>43079</v>
       </c>
@@ -11359,7 +11359,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
         <v>43090</v>
       </c>
@@ -11403,7 +11403,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179" s="8">
         <v>43093</v>
       </c>
@@ -11447,7 +11447,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
         <v>43123</v>
       </c>
@@ -11491,7 +11491,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181" s="8">
         <v>43134</v>
       </c>
@@ -11535,7 +11535,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
         <v>43142</v>
       </c>
@@ -11579,7 +11579,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183" s="8">
         <v>43148</v>
       </c>
@@ -11623,7 +11623,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184" s="4">
         <v>43169</v>
       </c>
@@ -11667,7 +11667,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185" s="8">
         <v>43171</v>
       </c>
@@ -11711,7 +11711,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
         <v>43173</v>
       </c>
@@ -11755,7 +11755,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187" s="8">
         <v>43174</v>
       </c>
@@ -11799,7 +11799,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188" s="4">
         <v>43175</v>
       </c>
@@ -11843,7 +11843,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189" s="8">
         <v>43176</v>
       </c>
@@ -11887,7 +11887,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190" s="4">
         <v>43177</v>
       </c>
@@ -11931,7 +11931,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191" s="8">
         <v>43178</v>
       </c>
@@ -11975,7 +11975,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192" s="4">
         <v>43179</v>
       </c>
@@ -12019,7 +12019,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193" s="8">
         <v>43180</v>
       </c>
@@ -12063,7 +12063,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194" s="4">
         <v>43182</v>
       </c>
@@ -12107,7 +12107,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195" s="8">
         <v>43183</v>
       </c>
@@ -12151,7 +12151,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196" s="4">
         <v>43184</v>
       </c>
@@ -12195,7 +12195,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197" s="8">
         <v>43185</v>
       </c>
@@ -12239,7 +12239,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198" s="4">
         <v>43186</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199" s="8">
         <v>43187</v>
       </c>
@@ -12327,7 +12327,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200" s="4">
         <v>43189</v>
       </c>
@@ -12371,7 +12371,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201" s="8">
         <v>43190</v>
       </c>
@@ -12415,7 +12415,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202" s="4">
         <v>43191</v>
       </c>
@@ -12459,7 +12459,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203" s="8">
         <v>43192</v>
       </c>
@@ -12503,7 +12503,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204" s="4">
         <v>43193</v>
       </c>
@@ -12547,7 +12547,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205" s="8">
         <v>43194</v>
       </c>
@@ -12591,7 +12591,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206" s="4">
         <v>43196</v>
       </c>
@@ -12635,7 +12635,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207" s="8">
         <v>43202</v>
       </c>
@@ -12679,7 +12679,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208" s="4">
         <v>43204</v>
       </c>
@@ -12723,7 +12723,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209" s="8">
         <v>43206</v>
       </c>
@@ -12767,7 +12767,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210" s="4">
         <v>43210</v>
       </c>
@@ -12811,7 +12811,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211" s="8">
         <v>43211</v>
       </c>
@@ -12855,7 +12855,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212" s="4">
         <v>43213</v>
       </c>
@@ -12899,7 +12899,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213" s="8">
         <v>43214</v>
       </c>
@@ -12943,7 +12943,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214" s="4">
         <v>43216</v>
       </c>
@@ -12987,7 +12987,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215" s="8">
         <v>43217</v>
       </c>
@@ -13031,7 +13031,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216" s="4">
         <v>43218</v>
       </c>
@@ -13075,7 +13075,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217" s="8">
         <v>43224</v>
       </c>
@@ -13119,7 +13119,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218" s="4">
         <v>43225</v>
       </c>
@@ -13163,7 +13163,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219" s="8">
         <v>65357</v>
       </c>
@@ -13207,7 +13207,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A220" s="4">
         <v>65360</v>
       </c>
@@ -13251,7 +13251,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A221" s="8">
         <v>65362</v>
       </c>
@@ -13295,7 +13295,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A222" s="4">
         <v>65365</v>
       </c>
@@ -13339,7 +13339,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A223" s="8">
         <v>65366</v>
       </c>
@@ -13383,7 +13383,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A224" s="4">
         <v>65370</v>
       </c>
@@ -13427,7 +13427,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A225" s="8">
         <v>65379</v>
       </c>
@@ -13471,7 +13471,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A226" s="4">
         <v>65380</v>
       </c>
@@ -13515,7 +13515,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A227" s="8">
         <v>65382</v>
       </c>
@@ -13559,7 +13559,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A228" s="4">
         <v>65383</v>
       </c>
@@ -13603,7 +13603,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A229" s="8">
         <v>65384</v>
       </c>
@@ -13647,7 +13647,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A230" s="4">
         <v>65386</v>
       </c>
@@ -13691,7 +13691,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A231" s="8">
         <v>68177</v>
       </c>
@@ -13735,7 +13735,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A232" s="4">
         <v>288649</v>
       </c>
@@ -13779,7 +13779,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A233" s="8">
         <v>288651</v>
       </c>
@@ -13823,7 +13823,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A234" s="4">
         <v>288652</v>
       </c>
@@ -13867,7 +13867,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A235" s="8">
         <v>288653</v>
       </c>
@@ -13911,7 +13911,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A236" s="4">
         <v>288654</v>
       </c>
@@ -13955,7 +13955,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A237" s="8">
         <v>288655</v>
       </c>
@@ -13999,7 +13999,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A238" s="4">
         <v>288656</v>
       </c>
@@ -14043,7 +14043,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A239" s="8">
         <v>288657</v>
       </c>
@@ -14087,7 +14087,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A240" s="4">
         <v>288658</v>
       </c>
@@ -14131,7 +14131,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A241" s="8">
         <v>288659</v>
       </c>
@@ -14175,7 +14175,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A242" s="4">
         <v>288660</v>
       </c>
@@ -14219,7 +14219,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A243" s="8">
         <v>288661</v>
       </c>
@@ -14263,7 +14263,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A244" s="4">
         <v>288662</v>
       </c>
@@ -14307,7 +14307,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A245" s="8">
         <v>288664</v>
       </c>
@@ -14351,7 +14351,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A246" s="4">
         <v>288665</v>
       </c>
@@ -14395,7 +14395,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A247" s="8">
         <v>288666</v>
       </c>
@@ -14439,7 +14439,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A248" s="4">
         <v>288667</v>
       </c>
@@ -14483,7 +14483,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A249" s="8">
         <v>288668</v>
       </c>
@@ -14527,7 +14527,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A250" s="4">
         <v>288669</v>
       </c>
@@ -14571,7 +14571,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A251" s="8">
         <v>288670</v>
       </c>
@@ -14615,7 +14615,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A252" s="4">
         <v>288673</v>
       </c>
@@ -14659,7 +14659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A253" s="8">
         <v>288674</v>
       </c>
@@ -14703,7 +14703,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A254" s="4">
         <v>288675</v>
       </c>
@@ -14747,7 +14747,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A255" s="8">
         <v>288676</v>
       </c>
@@ -14791,7 +14791,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A256" s="4">
         <v>288677</v>
       </c>
@@ -14835,7 +14835,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A257" s="8">
         <v>288678</v>
       </c>
@@ -14879,7 +14879,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A258" s="4">
         <v>288687</v>
       </c>
@@ -14923,7 +14923,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A259" s="8">
         <v>288700</v>
       </c>
@@ -14967,7 +14967,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A260" s="4">
         <v>288701</v>
       </c>
@@ -15011,7 +15011,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A261" s="8">
         <v>288703</v>
       </c>
@@ -15055,7 +15055,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A262" s="4">
         <v>288704</v>
       </c>
@@ -15099,7 +15099,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A263" s="8">
         <v>288705</v>
       </c>
@@ -15143,7 +15143,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A264" s="4">
         <v>288710</v>
       </c>
@@ -15187,7 +15187,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A265" s="8">
         <v>288715</v>
       </c>
@@ -15231,7 +15231,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A266" s="4">
         <v>288716</v>
       </c>
@@ -15275,7 +15275,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A267" s="8">
         <v>288718</v>
       </c>
@@ -15319,7 +15319,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A268" s="4">
         <v>288723</v>
       </c>
@@ -15363,7 +15363,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A269" s="8">
         <v>288724</v>
       </c>
@@ -15407,7 +15407,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A270" s="4">
         <v>288725</v>
       </c>
@@ -15451,7 +15451,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A271" s="8">
         <v>288728</v>
       </c>
@@ -15495,7 +15495,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A272" s="4">
         <v>288729</v>
       </c>
@@ -15539,7 +15539,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A273" s="8">
         <v>288730</v>
       </c>
@@ -15583,7 +15583,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A274" s="4">
         <v>288731</v>
       </c>
@@ -15627,7 +15627,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A275" s="8">
         <v>288736</v>
       </c>
@@ -15671,7 +15671,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A276" s="4">
         <v>288738</v>
       </c>
@@ -15715,7 +15715,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A277" s="8">
         <v>288743</v>
       </c>
@@ -15759,7 +15759,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A278" s="4">
         <v>288745</v>
       </c>
@@ -15803,7 +15803,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A279" s="8">
         <v>288749</v>
       </c>
@@ -15847,7 +15847,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A280" s="4">
         <v>288754</v>
       </c>
@@ -15891,7 +15891,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A281" s="8">
         <v>288755</v>
       </c>
@@ -15935,7 +15935,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A282" s="4">
         <v>288756</v>
       </c>
@@ -15979,7 +15979,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A283" s="8">
         <v>288757</v>
       </c>
@@ -16023,7 +16023,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A284" s="4">
         <v>288758</v>
       </c>
@@ -16067,7 +16067,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A285" s="8">
         <v>288759</v>
       </c>
@@ -16111,7 +16111,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A286" s="4">
         <v>288761</v>
       </c>
@@ -16155,7 +16155,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A287" s="8">
         <v>288763</v>
       </c>
@@ -16199,7 +16199,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A288" s="4">
         <v>288765</v>
       </c>
@@ -16243,7 +16243,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A289" s="8">
         <v>288766</v>
       </c>
@@ -16287,7 +16287,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A290" s="4">
         <v>288767</v>
       </c>
@@ -16331,7 +16331,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A291" s="8">
         <v>288768</v>
       </c>
@@ -16375,7 +16375,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A292" s="4">
         <v>288769</v>
       </c>
@@ -16419,7 +16419,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A293" s="8">
         <v>288770</v>
       </c>
@@ -16463,7 +16463,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A294" s="4">
         <v>288772</v>
       </c>
@@ -16507,7 +16507,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A295" s="8">
         <v>288773</v>
       </c>
@@ -16551,7 +16551,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A296" s="4">
         <v>288774</v>
       </c>
@@ -16595,7 +16595,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A297" s="8">
         <v>288777</v>
       </c>
@@ -16639,7 +16639,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A298" s="4">
         <v>288782</v>
       </c>
@@ -16683,7 +16683,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A299" s="8">
         <v>288784</v>
       </c>
@@ -16727,7 +16727,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A300" s="4">
         <v>288785</v>
       </c>
@@ -16771,7 +16771,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A301" s="8">
         <v>288786</v>
       </c>
@@ -16815,7 +16815,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A302" s="4">
         <v>288787</v>
       </c>
@@ -16859,7 +16859,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A303" s="8">
         <v>288788</v>
       </c>
@@ -16903,7 +16903,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A304" s="4">
         <v>288796</v>
       </c>
@@ -16947,7 +16947,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A305" s="8">
         <v>288798</v>
       </c>
@@ -16991,7 +16991,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A306" s="4">
         <v>288799</v>
       </c>
@@ -17035,7 +17035,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A307" s="8">
         <v>288801</v>
       </c>
@@ -17079,7 +17079,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A308" s="4">
         <v>288802</v>
       </c>
@@ -17123,7 +17123,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A309" s="8">
         <v>288805</v>
       </c>
@@ -17167,7 +17167,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A310" s="4">
         <v>288809</v>
       </c>
@@ -17211,7 +17211,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A311" s="8">
         <v>288811</v>
       </c>
@@ -17255,7 +17255,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A312" s="4">
         <v>288814</v>
       </c>
@@ -17299,7 +17299,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A313" s="8">
         <v>288816</v>
       </c>
@@ -17343,7 +17343,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A314" s="4">
         <v>288817</v>
       </c>
@@ -17387,7 +17387,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A315" s="8">
         <v>288818</v>
       </c>
@@ -17431,7 +17431,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A316" s="4">
         <v>288819</v>
       </c>
@@ -17475,7 +17475,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A317" s="8">
         <v>288821</v>
       </c>
@@ -17519,7 +17519,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A318" s="4">
         <v>288822</v>
       </c>
@@ -17563,7 +17563,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A319" s="8">
         <v>288825</v>
       </c>
@@ -17607,7 +17607,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A320" s="4">
         <v>288826</v>
       </c>
@@ -17651,7 +17651,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A321" s="8">
         <v>288831</v>
       </c>
@@ -17695,7 +17695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A322" s="4">
         <v>288835</v>
       </c>
@@ -17739,7 +17739,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A323" s="8">
         <v>288836</v>
       </c>
@@ -17783,7 +17783,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A324" s="4">
         <v>288837</v>
       </c>
@@ -17827,7 +17827,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A325" s="8">
         <v>288843</v>
       </c>
@@ -17871,7 +17871,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A326" s="4">
         <v>288845</v>
       </c>
@@ -17915,7 +17915,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A327" s="8">
         <v>288850</v>
       </c>
@@ -17959,7 +17959,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A328" s="4">
         <v>288851</v>
       </c>
@@ -18003,7 +18003,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A329" s="8">
         <v>288852</v>
       </c>
@@ -18047,7 +18047,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A330" s="4">
         <v>288860</v>
       </c>
@@ -18091,7 +18091,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A331" s="8">
         <v>288865</v>
       </c>
@@ -18135,7 +18135,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A332" s="4">
         <v>288866</v>
       </c>
@@ -18179,7 +18179,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A333" s="8">
         <v>288867</v>
       </c>
@@ -18223,7 +18223,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A334" s="4">
         <v>288869</v>
       </c>
@@ -18267,7 +18267,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A335" s="8">
         <v>288870</v>
       </c>
@@ -18311,7 +18311,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A336" s="4">
         <v>288882</v>
       </c>
@@ -18355,7 +18355,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A337" s="8">
         <v>288886</v>
       </c>
@@ -18399,7 +18399,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A338" s="4">
         <v>288893</v>
       </c>
@@ -18443,7 +18443,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A339" s="8">
         <v>288894</v>
       </c>
@@ -18487,7 +18487,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A340" s="4">
         <v>288897</v>
       </c>
@@ -18531,7 +18531,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A341" s="8">
         <v>288898</v>
       </c>
@@ -18575,7 +18575,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A342" s="4">
         <v>288899</v>
       </c>
@@ -18619,7 +18619,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A343" s="8">
         <v>288900</v>
       </c>
@@ -18663,7 +18663,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A344" s="4">
         <v>288901</v>
       </c>
@@ -18707,7 +18707,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A345" s="8">
         <v>288902</v>
       </c>
@@ -18751,7 +18751,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A346" s="4">
         <v>288904</v>
       </c>
@@ -18795,7 +18795,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A347" s="8">
         <v>288911</v>
       </c>
@@ -18839,7 +18839,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A348" s="4">
         <v>288912</v>
       </c>
@@ -18883,7 +18883,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A349" s="8">
         <v>288913</v>
       </c>
@@ -18927,7 +18927,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A350" s="4">
         <v>288917</v>
       </c>
@@ -18971,7 +18971,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A351" s="8">
         <v>288921</v>
       </c>
@@ -19015,7 +19015,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A352" s="4">
         <v>288923</v>
       </c>
@@ -19059,7 +19059,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A353" s="8">
         <v>288926</v>
       </c>
@@ -19103,7 +19103,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A354" s="4">
         <v>288927</v>
       </c>
@@ -19147,7 +19147,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A355" s="8">
         <v>288930</v>
       </c>
@@ -19191,7 +19191,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A356" s="4">
         <v>288932</v>
       </c>
@@ -19235,7 +19235,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A357" s="8">
         <v>288938</v>
       </c>
@@ -19279,7 +19279,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A358" s="4">
         <v>288940</v>
       </c>
@@ -19323,7 +19323,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A359" s="8">
         <v>288941</v>
       </c>
@@ -19367,7 +19367,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A360" s="4">
         <v>288942</v>
       </c>
@@ -19411,7 +19411,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A361" s="8">
         <v>288944</v>
       </c>
@@ -19455,7 +19455,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A362" s="4">
         <v>288945</v>
       </c>
@@ -19499,7 +19499,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A363" s="8">
         <v>288946</v>
       </c>
@@ -19543,7 +19543,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A364" s="4">
         <v>288947</v>
       </c>
@@ -19587,7 +19587,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A365" s="8">
         <v>288948</v>
       </c>
@@ -19631,7 +19631,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A366" s="4">
         <v>288949</v>
       </c>
@@ -19675,7 +19675,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A367" s="8">
         <v>288950</v>
       </c>
@@ -19719,7 +19719,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A368" s="4">
         <v>288955</v>
       </c>
@@ -19763,7 +19763,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A369" s="8">
         <v>288956</v>
       </c>
@@ -19807,7 +19807,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A370" s="4">
         <v>288957</v>
       </c>
@@ -19851,7 +19851,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A371" s="8">
         <v>288961</v>
       </c>
@@ -19895,7 +19895,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A372" s="4">
         <v>288962</v>
       </c>
@@ -19939,7 +19939,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A373" s="8">
         <v>288963</v>
       </c>
@@ -19983,7 +19983,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A374" s="4">
         <v>288964</v>
       </c>
@@ -20027,7 +20027,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A375" s="8">
         <v>288965</v>
       </c>
@@ -20071,7 +20071,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A376" s="4">
         <v>288966</v>
       </c>
@@ -20115,7 +20115,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A377" s="8">
         <v>288968</v>
       </c>
@@ -20159,7 +20159,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A378" s="4">
         <v>288969</v>
       </c>
@@ -20203,7 +20203,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A379" s="8">
         <v>288970</v>
       </c>
@@ -20247,7 +20247,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A380" s="4">
         <v>288971</v>
       </c>
@@ -20291,7 +20291,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A381" s="8">
         <v>288973</v>
       </c>
@@ -20335,7 +20335,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A382" s="4">
         <v>288981</v>
       </c>
@@ -20379,7 +20379,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A383" s="8">
         <v>288982</v>
       </c>
@@ -20423,7 +20423,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A384" s="4">
         <v>288983</v>
       </c>
@@ -20467,7 +20467,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A385" s="8">
         <v>288984</v>
       </c>
@@ -20511,7 +20511,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A386" s="4">
         <v>288985</v>
       </c>
@@ -20555,7 +20555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A387" s="8">
         <v>288990</v>
       </c>
@@ -20599,7 +20599,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A388" s="4">
         <v>288991</v>
       </c>
@@ -20643,7 +20643,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A389" s="8">
         <v>288992</v>
       </c>
@@ -20687,7 +20687,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A390" s="4">
         <v>288993</v>
       </c>
@@ -20731,7 +20731,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A391" s="8">
         <v>288994</v>
       </c>
@@ -20775,7 +20775,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A392" s="4">
         <v>288998</v>
       </c>
@@ -20819,7 +20819,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A393" s="8">
         <v>289003</v>
       </c>
@@ -20863,7 +20863,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A394" s="4">
         <v>289004</v>
       </c>
@@ -20907,7 +20907,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A395" s="8">
         <v>289006</v>
       </c>
@@ -20951,7 +20951,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A396" s="4">
         <v>289007</v>
       </c>
@@ -20995,7 +20995,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A397" s="8">
         <v>289011</v>
       </c>
@@ -21039,7 +21039,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A398" s="4">
         <v>289014</v>
       </c>
@@ -21083,7 +21083,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A399" s="8">
         <v>289015</v>
       </c>
@@ -21127,7 +21127,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A400" s="4">
         <v>289022</v>
       </c>
@@ -21171,7 +21171,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A401" s="8">
         <v>289025</v>
       </c>
@@ -21215,7 +21215,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A402" s="4">
         <v>289026</v>
       </c>
@@ -21259,7 +21259,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A403" s="8">
         <v>289029</v>
       </c>
@@ -21303,7 +21303,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A404" s="4">
         <v>289030</v>
       </c>
@@ -21347,7 +21347,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A405" s="8">
         <v>289033</v>
       </c>
@@ -21391,7 +21391,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A406" s="4">
         <v>412569</v>
       </c>
@@ -21435,7 +21435,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A407" s="8">
         <v>412571</v>
       </c>
@@ -21479,7 +21479,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A408" s="4">
         <v>503028</v>
       </c>
@@ -21523,7 +21523,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A409" s="8">
         <v>503029</v>
       </c>
@@ -21567,7 +21567,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A410" s="4">
         <v>503030</v>
       </c>
@@ -21611,7 +21611,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A411" s="8">
         <v>503035</v>
       </c>
@@ -21655,7 +21655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A412" s="4">
         <v>503038</v>
       </c>
@@ -21699,7 +21699,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A413" s="8">
         <v>503040</v>
       </c>
@@ -21743,7 +21743,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A414" s="4">
         <v>503061</v>
       </c>
@@ -21787,7 +21787,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A415" s="8">
         <v>503071</v>
       </c>
@@ -21831,7 +21831,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A416" s="4">
         <v>503072</v>
       </c>
@@ -21875,7 +21875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A417" s="8">
         <v>503075</v>
       </c>
@@ -21919,7 +21919,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A418" s="4">
         <v>503088</v>
       </c>
@@ -21963,7 +21963,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A419" s="8">
         <v>503089</v>
       </c>
@@ -22007,7 +22007,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A420" s="4">
         <v>503092</v>
       </c>
@@ -22051,7 +22051,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A421" s="8">
         <v>503106</v>
       </c>
@@ -22095,7 +22095,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A422" s="4">
         <v>503108</v>
       </c>
@@ -22139,7 +22139,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A423" s="8">
         <v>503111</v>
       </c>
@@ -22183,7 +22183,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A424" s="4">
         <v>503113</v>
       </c>
@@ -22227,7 +22227,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A425" s="8">
         <v>503115</v>
       </c>
@@ -22271,7 +22271,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A426" s="4">
         <v>503116</v>
       </c>
@@ -22315,7 +22315,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A427" s="8">
         <v>503119</v>
       </c>
@@ -22359,7 +22359,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A428" s="4">
         <v>503120</v>
       </c>
@@ -22403,7 +22403,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A429" s="8">
         <v>503128</v>
       </c>
@@ -22447,7 +22447,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A430" s="4">
         <v>503129</v>
       </c>
@@ -22491,7 +22491,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A431" s="8">
         <v>503133</v>
       </c>
@@ -22535,7 +22535,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A432" s="4">
         <v>503136</v>
       </c>
@@ -22579,7 +22579,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A433" s="8">
         <v>503137</v>
       </c>
@@ -22623,7 +22623,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A434" s="4">
         <v>503138</v>
       </c>
@@ -22667,7 +22667,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A435" s="8">
         <v>551316</v>
       </c>
@@ -22711,7 +22711,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A436" s="4">
         <v>609552</v>
       </c>
@@ -22755,7 +22755,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A437" s="8">
         <v>609553</v>
       </c>
@@ -22799,7 +22799,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A438" s="4">
         <v>609554</v>
       </c>
@@ -22843,7 +22843,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A439" s="8">
         <v>609555</v>
       </c>
@@ -22887,7 +22887,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A440" s="4">
         <v>609558</v>
       </c>
@@ -22931,7 +22931,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A441" s="8">
         <v>609559</v>
       </c>
@@ -22975,7 +22975,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A442" s="4">
         <v>609560</v>
       </c>
@@ -23019,7 +23019,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A443" s="8">
         <v>609561</v>
       </c>
@@ -23063,7 +23063,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A444" s="4">
         <v>790517</v>
       </c>
@@ -23105,7 +23105,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A445" s="8">
         <v>790519</v>
       </c>
@@ -23147,7 +23147,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A446" s="4">
         <v>790523</v>
       </c>
@@ -23189,7 +23189,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A447" s="8">
         <v>790530</v>
       </c>
@@ -23231,7 +23231,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A448" s="4">
         <v>790550</v>
       </c>
@@ -23273,7 +23273,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A449" s="8">
         <v>790553</v>
       </c>
@@ -23315,7 +23315,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A450" s="4">
         <v>790573</v>
       </c>
@@ -23357,7 +23357,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A451" s="8">
         <v>790579</v>
       </c>
@@ -23399,7 +23399,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A452" s="4">
         <v>790580</v>
       </c>
@@ -23441,7 +23441,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A453" s="8">
         <v>790586</v>
       </c>
@@ -23483,7 +23483,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A454" s="4">
         <v>790591</v>
       </c>
@@ -23525,7 +23525,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A455" s="8">
         <v>790594</v>
       </c>
@@ -23567,7 +23567,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A456" s="4">
         <v>790596</v>
       </c>
@@ -23609,7 +23609,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A457" s="8">
         <v>790597</v>
       </c>
@@ -23651,7 +23651,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A458" s="4">
         <v>790598</v>
       </c>
@@ -23693,7 +23693,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A459" s="8">
         <v>790606</v>
       </c>
@@ -23735,7 +23735,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A460" s="4">
         <v>790607</v>
       </c>
@@ -23777,7 +23777,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A461" s="8">
         <v>790610</v>
       </c>
@@ -23819,7 +23819,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A462" s="4">
         <v>790612</v>
       </c>
@@ -23861,7 +23861,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A463" s="8">
         <v>790616</v>
       </c>
@@ -23903,7 +23903,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A464" s="4">
         <v>790619</v>
       </c>
@@ -23945,7 +23945,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="465" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A465" s="8">
         <v>790626</v>
       </c>
@@ -23987,7 +23987,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="466" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A466" s="4">
         <v>790630</v>
       </c>
@@ -24029,7 +24029,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="467" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A467" s="8">
         <v>790637</v>
       </c>
@@ -24071,7 +24071,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="468" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A468" s="4">
         <v>790644</v>
       </c>
@@ -24113,7 +24113,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="469" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A469" s="8">
         <v>790645</v>
       </c>
@@ -24155,7 +24155,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="470" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A470" s="4">
         <v>790646</v>
       </c>
@@ -24197,7 +24197,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="471" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A471" s="8">
         <v>790649</v>
       </c>
@@ -24239,7 +24239,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="472" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A472" s="4">
         <v>790654</v>
       </c>
@@ -24281,7 +24281,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="473" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A473" s="8">
         <v>790656</v>
       </c>
@@ -24323,7 +24323,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="474" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A474" s="4">
         <v>790660</v>
       </c>
@@ -24365,7 +24365,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="475" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A475" s="8">
         <v>790661</v>
       </c>
@@ -24407,7 +24407,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="476" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A476" s="4">
         <v>790672</v>
       </c>
@@ -24449,7 +24449,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="477" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A477" s="8">
         <v>790673</v>
       </c>
@@ -24491,7 +24491,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="478" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A478" s="4">
         <v>790677</v>
       </c>
@@ -24533,7 +24533,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="479" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A479" s="8">
         <v>790678</v>
       </c>
@@ -24575,7 +24575,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="480" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A480" s="4">
         <v>790685</v>
       </c>
@@ -24617,7 +24617,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="481" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A481" s="8">
         <v>790686</v>
       </c>
@@ -24659,7 +24659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="482" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A482" s="4">
         <v>790689</v>
       </c>
@@ -24701,7 +24701,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="483" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A483" s="8">
         <v>790690</v>
       </c>
@@ -24743,7 +24743,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="484" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A484" s="4">
         <v>790691</v>
       </c>
@@ -24785,7 +24785,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="485" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A485" s="8">
         <v>790692</v>
       </c>
@@ -24827,7 +24827,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="486" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A486" s="4">
         <v>790693</v>
       </c>
@@ -24869,7 +24869,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="487" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A487" s="8">
         <v>790699</v>
       </c>
@@ -24911,7 +24911,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="488" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A488" s="4">
         <v>790700</v>
       </c>
@@ -24953,7 +24953,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="489" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A489" s="8">
         <v>790701</v>
       </c>
@@ -24995,7 +24995,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="490" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A490" s="4">
         <v>790704</v>
       </c>
@@ -25037,7 +25037,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="491" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A491" s="8">
         <v>790705</v>
       </c>
@@ -25079,7 +25079,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="492" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A492" s="4">
         <v>790706</v>
       </c>
@@ -25121,7 +25121,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="493" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A493" s="8">
         <v>791045</v>
       </c>
@@ -25163,7 +25163,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="494" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A494" s="4">
         <v>11226</v>
       </c>
@@ -25207,7 +25207,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="495" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A495" s="8">
         <v>11229</v>
       </c>
@@ -25251,7 +25251,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="496" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A496" s="4">
         <v>11228</v>
       </c>
@@ -25295,7 +25295,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="497" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A497" s="8">
         <v>792082</v>
       </c>
@@ -25337,7 +25337,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="498" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A498" s="4">
         <v>11218</v>
       </c>
@@ -25381,7 +25381,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="499" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A499" s="8">
         <v>11220</v>
       </c>
@@ -25425,7 +25425,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="500" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A500" s="4">
         <v>11221</v>
       </c>
@@ -25469,7 +25469,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="501" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A501" s="8">
         <v>11231</v>
       </c>
@@ -25513,7 +25513,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="502" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A502" s="4">
         <v>11233</v>
       </c>
@@ -25557,7 +25557,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="503" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A503" s="8">
         <v>11234</v>
       </c>
@@ -25601,7 +25601,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="504" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A504" s="4">
         <v>11235</v>
       </c>
